--- a/biology/Médecine/Dominique_Domec/Dominique_Domec.xlsx
+++ b/biology/Médecine/Dominique_Domec/Dominique_Domec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Domec est un médecin spécialisé en chirurgie né à Ossun-ez-Angles (Hautes Pyrénées) en 1845 et décédé à Quito (Équateur) en 1884. Il a contribué à fonder l'école de chirurgie équatorienne dans la seconde moitié du XIXe siècle.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Domec est le fils de François Domec (1800-1881) cultivateur et maire d'Ossun-ez-Angles, et d'Anne Dabadie (1803-1867) qui est issue d'une famille de maîtres chirurgiens. Il a effectué ses études de médecine à la faculté de médecine de Montpellier. Après avoir été interne des hôpitaux, il a obtenu son doctorat en 1871. En 1873, il rejoint à Quito le professeur Étienne Gayraud, chirurgien à Montpellier, dans le cadre d'une mission effectuée à la demande du président Gabriel García Moreno qui voulait fonder une école de médecine moderne à Quito[1],[2],[3]. Dominique Domec effectua cette mission de 1873 à 1878. Il a ensuite été nommé professeur d'anatomie à Faculté libre de médecine de Lille en 1877[4], où il a également été chargé de l'enseignement sur les maladies syphilitiques[5]. Du fait de la détérioration de son état de santé, lié selon Étienne Gayraud au fait qu'il « se surmenait pour suffire à ses nombreuses occupations[5] », il renonce à ses missions d'enseignement et revint en 1882 à Quito, dont il appréciait la douceur du climat[1]. Il y décède de « fatigue cérébrale qui parait être le triste apanage des intelligences d'élite[5] » le 11 novembre 1884 à 39 ans, laissant un fils né à Quito.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Domec est le fils de François Domec (1800-1881) cultivateur et maire d'Ossun-ez-Angles, et d'Anne Dabadie (1803-1867) qui est issue d'une famille de maîtres chirurgiens. Il a effectué ses études de médecine à la faculté de médecine de Montpellier. Après avoir été interne des hôpitaux, il a obtenu son doctorat en 1871. En 1873, il rejoint à Quito le professeur Étienne Gayraud, chirurgien à Montpellier, dans le cadre d'une mission effectuée à la demande du président Gabriel García Moreno qui voulait fonder une école de médecine moderne à Quito. Dominique Domec effectua cette mission de 1873 à 1878. Il a ensuite été nommé professeur d'anatomie à Faculté libre de médecine de Lille en 1877, où il a également été chargé de l'enseignement sur les maladies syphilitiques. Du fait de la détérioration de son état de santé, lié selon Étienne Gayraud au fait qu'il « se surmenait pour suffire à ses nombreuses occupations », il renonce à ses missions d'enseignement et revint en 1882 à Quito, dont il appréciait la douceur du climat. Il y décède de « fatigue cérébrale qui parait être le triste apanage des intelligences d'élite » le 11 novembre 1884 à 39 ans, laissant un fils né à Quito.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de sa mission, le professeur Étienne Gayraud fit construire un amphithéâtre d'anatomie et créa une Chaire d'Anatomie et de Dissection à l'Hospital San Juan de Dios, pour permettre aux étudiants en médecine d'acquérir une formation clinique pratique et non plus exclusivement théorique comme c'était jusqu'alors le cas[5]. Il demanda à Dominique Domec, qu'il décrit comme « un des internes les plus distingués de l'hôpital Saint-Éloi de Montpellier[5] », de l'assister dans la mission de modernisation de la chirurgie en Équateur. Dominique Domec est nommé professeur d'anatomie. Les deux chirurgiens ont transmis leur expertise technique à leurs confrères équatoriens dans le cadre d'enseignements lors d'interventions chirurgicales ou dans l’amphithéâtre d'anatomie de la faculté de médecine de Quito. Dominique Domec contribua notamment à l'introduction de l'anesthésie au chloroforme[6], et aux techniques de conservation de cadavres pour l'enseignement avec du formol[1]. Il a réalisé l'autopsie du président Gabriel Garcia Moreno après son assassinat en 1875. Il a également observé l'impact bénéfique du climat et de l'altitude de Quito sur l'incidence et le pronostic de la tuberculose[5]. 
-Étienne Gayraud et Dominique Domec ont publié leurs observations sur la médecine à Quito dans un ouvrage intitulé La Capitale de l'Équateur au point de vue médico-chirurgical[5] publié après son décés en 1886 et réédité en 2013.
-Dominique Domec est également l'auteur de plusieurs articles scientifiques[7] : L'Empoisonnement par la strychnine, observation et réflexions (1877) ; Sur la désarticulation de la hanche (1878) ; La Syphilis sous le microscope (1879 ; réédité en 2018) ; La Chirurgie dite conservatrice au lit du malade (1879) ; Quelques considérations sur les causes de revers dans les opérations (1880).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de sa mission, le professeur Étienne Gayraud fit construire un amphithéâtre d'anatomie et créa une Chaire d'Anatomie et de Dissection à l'Hospital San Juan de Dios, pour permettre aux étudiants en médecine d'acquérir une formation clinique pratique et non plus exclusivement théorique comme c'était jusqu'alors le cas. Il demanda à Dominique Domec, qu'il décrit comme « un des internes les plus distingués de l'hôpital Saint-Éloi de Montpellier », de l'assister dans la mission de modernisation de la chirurgie en Équateur. Dominique Domec est nommé professeur d'anatomie. Les deux chirurgiens ont transmis leur expertise technique à leurs confrères équatoriens dans le cadre d'enseignements lors d'interventions chirurgicales ou dans l’amphithéâtre d'anatomie de la faculté de médecine de Quito. Dominique Domec contribua notamment à l'introduction de l'anesthésie au chloroforme, et aux techniques de conservation de cadavres pour l'enseignement avec du formol. Il a réalisé l'autopsie du président Gabriel Garcia Moreno après son assassinat en 1875. Il a également observé l'impact bénéfique du climat et de l'altitude de Quito sur l'incidence et le pronostic de la tuberculose. 
+Étienne Gayraud et Dominique Domec ont publié leurs observations sur la médecine à Quito dans un ouvrage intitulé La Capitale de l'Équateur au point de vue médico-chirurgical publié après son décés en 1886 et réédité en 2013.
+Dominique Domec est également l'auteur de plusieurs articles scientifiques : L'Empoisonnement par la strychnine, observation et réflexions (1877) ; Sur la désarticulation de la hanche (1878) ; La Syphilis sous le microscope (1879 ; réédité en 2018) ; La Chirurgie dite conservatrice au lit du malade (1879) ; Quelques considérations sur les causes de revers dans les opérations (1880).
 			Maison natale de Dominique Domec
 			Portrait de Dominique Domec
 			Ouvrage rédigé par les professeurs Gayraud et Domec
